--- a/biology/Zoologie/Euptychia_neildi/Euptychia_neildi.xlsx
+++ b/biology/Zoologie/Euptychia_neildi/Euptychia_neildi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia neildi est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia neildi a été décrit par Brévignon en 2005[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia neildi a été décrit par Brévignon en 2005.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia neildi est un papillon au dessus marron clair translucide avec l'ocelle de l'apex de l'aile antérieure et deux de l'aile postérieure bien visibles.
 Le revers, rayé de marron cuivré, présente une ligne submarginale d'ocelles dont trois à l'aile antérieure et cinq à l'aile postérieure sont nets et parmi ces derniers quatre sont noirs pupillés d'argent, deux à l'apex et deux internes de l'aile postérieure.
@@ -574,11 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia neildi vole de février à novembre[1].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella. Des chenilles trouvées sur des  sélaginelles ont pu être élevées. Elles sont de couleur verte comme la chrysalide[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia neildi vole de février à novembre.
 </t>
         </is>
       </c>
@@ -604,16 +620,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella. Des chenilles trouvées sur des  sélaginelles ont pu être élevées. Elles sont de couleur verte comme la chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia neildi n'est présent qu'en Guyane[1].
-Biotope
-Il a été inventorié en lisière de forêt, dans les chemins forestiers[1].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia neildi n'est présent qu'en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été inventorié en lisière de forêt, dans les chemins forestiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_neildi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia neildi, sur Wikimedia CommonsEuptychia neildi, sur Wikispecies
 </t>
